--- a/data/my_portfolio_price_quant.xlsx
+++ b/data/my_portfolio_price_quant.xlsx
@@ -437,7 +437,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U101"/>
+  <dimension ref="A1:U103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7005,6 +7005,136 @@
         <v>4375</v>
       </c>
     </row>
+    <row r="102" spans="1:21">
+      <c r="A102" s="2">
+        <v>43780</v>
+      </c>
+      <c r="B102">
+        <v>2850</v>
+      </c>
+      <c r="C102">
+        <v>27150</v>
+      </c>
+      <c r="D102">
+        <v>11350</v>
+      </c>
+      <c r="E102">
+        <v>2480</v>
+      </c>
+      <c r="F102">
+        <v>2215</v>
+      </c>
+      <c r="G102">
+        <v>8390</v>
+      </c>
+      <c r="H102">
+        <v>101000</v>
+      </c>
+      <c r="I102">
+        <v>20150</v>
+      </c>
+      <c r="J102">
+        <v>74300</v>
+      </c>
+      <c r="K102">
+        <v>3135</v>
+      </c>
+      <c r="L102">
+        <v>6510</v>
+      </c>
+      <c r="M102">
+        <v>6490</v>
+      </c>
+      <c r="N102">
+        <v>39850</v>
+      </c>
+      <c r="O102">
+        <v>31600</v>
+      </c>
+      <c r="P102">
+        <v>1955</v>
+      </c>
+      <c r="Q102">
+        <v>63700</v>
+      </c>
+      <c r="R102">
+        <v>6830</v>
+      </c>
+      <c r="S102">
+        <v>9210</v>
+      </c>
+      <c r="T102">
+        <v>4765</v>
+      </c>
+      <c r="U102">
+        <v>4260</v>
+      </c>
+    </row>
+    <row r="103" spans="1:21">
+      <c r="A103" s="2">
+        <v>43781</v>
+      </c>
+      <c r="B103">
+        <v>2805</v>
+      </c>
+      <c r="C103">
+        <v>27250</v>
+      </c>
+      <c r="D103">
+        <v>11450</v>
+      </c>
+      <c r="E103">
+        <v>2495</v>
+      </c>
+      <c r="F103">
+        <v>2190</v>
+      </c>
+      <c r="G103">
+        <v>8370</v>
+      </c>
+      <c r="H103">
+        <v>100500</v>
+      </c>
+      <c r="I103">
+        <v>20200</v>
+      </c>
+      <c r="J103">
+        <v>74000</v>
+      </c>
+      <c r="K103">
+        <v>3135</v>
+      </c>
+      <c r="L103">
+        <v>6420</v>
+      </c>
+      <c r="M103">
+        <v>6490</v>
+      </c>
+      <c r="N103">
+        <v>39750</v>
+      </c>
+      <c r="O103">
+        <v>31600</v>
+      </c>
+      <c r="P103">
+        <v>1945</v>
+      </c>
+      <c r="Q103">
+        <v>63700</v>
+      </c>
+      <c r="R103">
+        <v>6830</v>
+      </c>
+      <c r="S103">
+        <v>9210</v>
+      </c>
+      <c r="T103">
+        <v>4760</v>
+      </c>
+      <c r="U103">
+        <v>4235</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/my_portfolio_price_quant.xlsx
+++ b/data/my_portfolio_price_quant.xlsx
@@ -437,7 +437,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U103"/>
+  <dimension ref="A1:U104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7075,64 +7075,129 @@
         <v>43781</v>
       </c>
       <c r="B103">
-        <v>2805</v>
+        <v>2830</v>
       </c>
       <c r="C103">
-        <v>27250</v>
+        <v>27400</v>
       </c>
       <c r="D103">
-        <v>11450</v>
+        <v>11350</v>
       </c>
       <c r="E103">
-        <v>2495</v>
+        <v>2525</v>
       </c>
       <c r="F103">
-        <v>2190</v>
+        <v>2200</v>
       </c>
       <c r="G103">
+        <v>8340</v>
+      </c>
+      <c r="H103">
+        <v>101000</v>
+      </c>
+      <c r="I103">
+        <v>20150</v>
+      </c>
+      <c r="J103">
+        <v>75400</v>
+      </c>
+      <c r="K103">
+        <v>3175</v>
+      </c>
+      <c r="L103">
+        <v>6500</v>
+      </c>
+      <c r="M103">
+        <v>6270</v>
+      </c>
+      <c r="N103">
+        <v>39550</v>
+      </c>
+      <c r="O103">
+        <v>31650</v>
+      </c>
+      <c r="P103">
+        <v>1925</v>
+      </c>
+      <c r="Q103">
+        <v>64100</v>
+      </c>
+      <c r="R103">
+        <v>6940</v>
+      </c>
+      <c r="S103">
+        <v>9180</v>
+      </c>
+      <c r="T103">
+        <v>4740</v>
+      </c>
+      <c r="U103">
+        <v>4295</v>
+      </c>
+    </row>
+    <row r="104" spans="1:21">
+      <c r="A104" s="2">
+        <v>43782</v>
+      </c>
+      <c r="B104">
+        <v>2780</v>
+      </c>
+      <c r="C104">
+        <v>27300</v>
+      </c>
+      <c r="D104">
+        <v>11200</v>
+      </c>
+      <c r="E104">
+        <v>2530</v>
+      </c>
+      <c r="F104">
+        <v>2185</v>
+      </c>
+      <c r="G104">
         <v>8370</v>
       </c>
-      <c r="H103">
-        <v>100500</v>
-      </c>
-      <c r="I103">
+      <c r="H104">
+        <v>101000</v>
+      </c>
+      <c r="I104">
         <v>20200</v>
       </c>
-      <c r="J103">
-        <v>74000</v>
-      </c>
-      <c r="K103">
-        <v>3135</v>
-      </c>
-      <c r="L103">
-        <v>6420</v>
-      </c>
-      <c r="M103">
-        <v>6490</v>
-      </c>
-      <c r="N103">
-        <v>39750</v>
-      </c>
-      <c r="O103">
-        <v>31600</v>
-      </c>
-      <c r="P103">
-        <v>1945</v>
-      </c>
-      <c r="Q103">
-        <v>63700</v>
-      </c>
-      <c r="R103">
-        <v>6830</v>
-      </c>
-      <c r="S103">
-        <v>9210</v>
-      </c>
-      <c r="T103">
-        <v>4760</v>
-      </c>
-      <c r="U103">
-        <v>4235</v>
+      <c r="J104">
+        <v>75400</v>
+      </c>
+      <c r="K104">
+        <v>3180</v>
+      </c>
+      <c r="L104">
+        <v>6440</v>
+      </c>
+      <c r="M104">
+        <v>6310</v>
+      </c>
+      <c r="N104">
+        <v>39800</v>
+      </c>
+      <c r="O104">
+        <v>31500</v>
+      </c>
+      <c r="P104">
+        <v>1925</v>
+      </c>
+      <c r="Q104">
+        <v>64200</v>
+      </c>
+      <c r="R104">
+        <v>6990</v>
+      </c>
+      <c r="S104">
+        <v>9150</v>
+      </c>
+      <c r="T104">
+        <v>4730</v>
+      </c>
+      <c r="U104">
+        <v>4240</v>
       </c>
     </row>
   </sheetData>
